--- a/info/Cronograma de Actividades.xlsx
+++ b/info/Cronograma de Actividades.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Cronograma de Actividades</t>
   </si>
@@ -75,12 +75,6 @@
     <t>CSS/JS</t>
   </si>
   <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
     <t>Idioma</t>
   </si>
   <si>
@@ -103,13 +97,28 @@
   </si>
   <si>
     <t>Entrega</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +157,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -195,12 +212,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +308,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,33 +318,36 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60% - Énfasis4" xfId="5" builtinId="44"/>
@@ -347,6 +367,247 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BurnDown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$O$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trabajo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$N$28:$N$39</c:f>
+              <c:numCache>
+                <c:formatCode>[$-240A]d" de "mmmm" de "yyyy;@</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42445</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42457</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$O$28:$O$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150278656"/>
+        <c:axId val="155435008"/>
+      </c:areaChart>
+      <c:dateAx>
+        <c:axId val="150278656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155435008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="155435008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150278656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,34 +897,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S22"/>
+  <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -674,63 +936,63 @@
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4">
         <v>14</v>
       </c>
-      <c r="F5" s="4">
+      <c r="I5" s="4">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4">
+        <v>22</v>
+      </c>
+      <c r="M5" s="4">
+        <v>23</v>
+      </c>
+      <c r="N5" s="4">
+        <v>28</v>
+      </c>
+      <c r="O5" s="4">
+        <v>29</v>
+      </c>
+      <c r="P5" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>6</v>
+      </c>
+      <c r="S5" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4">
-        <v>28</v>
-      </c>
-      <c r="J5" s="4">
-        <v>31</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4">
-        <v>7</v>
-      </c>
-      <c r="M5" s="4">
-        <v>11</v>
-      </c>
-      <c r="N5" s="4">
-        <v>14</v>
-      </c>
-      <c r="O5" s="4">
-        <v>18</v>
-      </c>
-      <c r="P5" s="4">
-        <v>21</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>25</v>
-      </c>
-      <c r="R5" s="4">
-        <v>26</v>
-      </c>
-      <c r="S5" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -747,16 +1009,16 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -769,18 +1031,18 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -793,14 +1055,14 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -815,16 +1077,16 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -837,7 +1099,7 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
@@ -845,10 +1107,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -859,7 +1121,7 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
@@ -867,10 +1129,10 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -881,18 +1143,18 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -903,19 +1165,19 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -925,7 +1187,7 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
@@ -935,57 +1197,57 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -993,7 +1255,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1003,11 +1265,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -1015,11 +1277,11 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>22</v>
+      <c r="B19" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1030,18 +1292,18 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1053,19 +1315,19 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>25</v>
+      <c r="B21" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1078,46 +1340,150 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="14"/>
+      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="D22" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="O22" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N28" s="22">
+        <v>42431</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="22">
+        <v>42436</v>
+      </c>
+      <c r="O29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N30" s="22">
+        <v>42437</v>
+      </c>
+      <c r="O30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N31" s="22">
+        <v>42438</v>
+      </c>
+      <c r="O31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N32" s="22">
+        <v>42443</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="22">
+        <v>42444</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="22">
+        <v>42445</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="22">
+        <v>42450</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="22">
+        <v>42451</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="22">
+        <v>42452</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="22">
+        <v>42457</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="22">
+        <v>42458</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="P22:Q22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/info/Cronograma de Actividades.xlsx
+++ b/info/Cronograma de Actividades.xlsx
@@ -116,7 +116,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -166,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,12 +255,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +302,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,19 +329,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60% - Énfasis4" xfId="5" builtinId="44"/>
@@ -521,11 +514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150278656"/>
-        <c:axId val="155435008"/>
+        <c:axId val="192798208"/>
+        <c:axId val="132410176"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="150278656"/>
+        <c:axId val="192798208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,14 +528,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155435008"/>
+        <c:crossAx val="132410176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="155435008"/>
+        <c:axId val="132410176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150278656"/>
+        <c:crossAx val="192798208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -899,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +978,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1009,7 +1002,7 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1024,7 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1055,8 +1048,8 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7"/>
@@ -1077,8 +1070,8 @@
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="3"/>
@@ -1099,8 +1092,8 @@
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
@@ -1121,8 +1114,8 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3"/>
@@ -1143,8 +1136,8 @@
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="3"/>
@@ -1165,7 +1158,7 @@
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="12" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1180,7 @@
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1209,8 +1202,8 @@
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3"/>
@@ -1231,7 +1224,7 @@
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1255,7 +1248,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1270,7 @@
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1301,7 +1294,7 @@
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1347,35 +1340,35 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="17" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="N22" s="20"/>
       <c r="O22" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="21" t="s">
+      <c r="O27" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="22">
+      <c r="N28" s="19">
         <v>42431</v>
       </c>
       <c r="O28">
@@ -1383,7 +1376,7 @@
       </c>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N29" s="22">
+      <c r="N29" s="19">
         <v>42436</v>
       </c>
       <c r="O29">
@@ -1391,7 +1384,7 @@
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N30" s="22">
+      <c r="N30" s="19">
         <v>42437</v>
       </c>
       <c r="O30">
@@ -1399,7 +1392,7 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N31" s="22">
+      <c r="N31" s="19">
         <v>42438</v>
       </c>
       <c r="O31">
@@ -1407,7 +1400,7 @@
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="N32" s="22">
+      <c r="N32" s="19">
         <v>42443</v>
       </c>
       <c r="O32">
@@ -1415,7 +1408,7 @@
       </c>
     </row>
     <row r="33" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N33" s="22">
+      <c r="N33" s="19">
         <v>42444</v>
       </c>
       <c r="O33">
@@ -1423,7 +1416,7 @@
       </c>
     </row>
     <row r="34" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N34" s="22">
+      <c r="N34" s="19">
         <v>42445</v>
       </c>
       <c r="O34">
@@ -1431,7 +1424,7 @@
       </c>
     </row>
     <row r="35" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N35" s="22">
+      <c r="N35" s="19">
         <v>42450</v>
       </c>
       <c r="O35">
@@ -1439,7 +1432,7 @@
       </c>
     </row>
     <row r="36" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N36" s="22">
+      <c r="N36" s="19">
         <v>42451</v>
       </c>
       <c r="O36">
@@ -1447,7 +1440,7 @@
       </c>
     </row>
     <row r="37" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N37" s="22">
+      <c r="N37" s="19">
         <v>42452</v>
       </c>
       <c r="O37">
@@ -1455,7 +1448,7 @@
       </c>
     </row>
     <row r="38" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N38" s="22">
+      <c r="N38" s="19">
         <v>42457</v>
       </c>
       <c r="O38">
@@ -1463,7 +1456,7 @@
       </c>
     </row>
     <row r="39" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N39" s="22">
+      <c r="N39" s="19">
         <v>42458</v>
       </c>
       <c r="O39">
@@ -1471,7 +1464,7 @@
       </c>
     </row>
     <row r="40" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N40" s="20"/>
+      <c r="N40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
